--- a/NAGA-II_results/Pareto_results.xlsx
+++ b/NAGA-II_results/Pareto_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_origin\NAGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C9664F-5941-494B-976B-FF1E885AF280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA74788-AFBF-450D-931B-AEC5397C91DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="4" xr2:uid="{BC49C3F9-9838-4A2A-84A7-0972FCA69DC5}"/>
+    <workbookView xWindow="203" yWindow="2213" windowWidth="16200" windowHeight="9982" xr2:uid="{BC49C3F9-9838-4A2A-84A7-0972FCA69DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="△Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -262,7 +262,7 @@
                   <c:v>4755402.3714285716</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4502191.5666666673</c:v>
+                  <c:v>4817077.33015873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,7 +349,7 @@
                   <c:v>135740.50053492343</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130224.53087974354</c:v>
+                  <c:v>136671.5556133003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4042,162 +4042,150 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet8!$A$1:$A$24</c:f>
+              <c:f>△Sheet8!$A$1:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>4709847.5793650793</c:v>
+                  <c:v>4709847.5793700004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4631898.3412698414</c:v>
+                  <c:v>4631898.3412699997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4742235.5793650793</c:v>
+                  <c:v>4742235.5793700004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4772447.6015873021</c:v>
+                  <c:v>4772447.6015900001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4754042.0793650793</c:v>
+                  <c:v>4784254.1015900001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4784254.1015873021</c:v>
+                  <c:v>4823487.6015900001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4823487.6015873021</c:v>
+                  <c:v>4835294.1015900001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4835294.1015873021</c:v>
+                  <c:v>4837535.2682499997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4837535.2682539681</c:v>
+                  <c:v>4796507.9015899999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4796507.9015873019</c:v>
+                  <c:v>4635646.3412699997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4635646.3412698414</c:v>
+                  <c:v>4417688.7761899997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4417688.7761904765</c:v>
+                  <c:v>4498904.5984100001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4498904.5984126981</c:v>
+                  <c:v>4510711.0984100001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4510711.0984126981</c:v>
+                  <c:v>4673478.5793700004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4673478.5793650793</c:v>
+                  <c:v>4586156.3412699997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4586156.3412698414</c:v>
+                  <c:v>4685285.0793700004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4685285.0793650793</c:v>
+                  <c:v>4697008.2936500004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4726705.6015873021</c:v>
+                  <c:v>4720023.2936500004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4697008.2936507938</c:v>
+                  <c:v>4750235.31587</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4720023.2936507938</c:v>
+                  <c:v>4563944.0555600002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4750235.3158730157</c:v>
+                  <c:v>4793017.0301599996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4563944.055555556</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4793017.0301587302</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4817077.33015873</c:v>
+                  <c:v>4817077.3301600004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet8!$B$1:$B$24</c:f>
+              <c:f>△Sheet8!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>133103.55117533079</c:v>
+                  <c:v>133103.55118000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131214.96524083524</c:v>
+                  <c:v>131214.96523999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133663.96302747051</c:v>
+                  <c:v>133663.96303000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134118.46439229793</c:v>
+                  <c:v>134118.46439000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134058.23879816389</c:v>
+                  <c:v>134512.74015999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>134512.74016299131</c:v>
+                  <c:v>138344.84383999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140344.84384323441</c:v>
+                  <c:v>140739.11960999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140739.11961392776</c:v>
+                  <c:v>141544.535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>141544.53499703755</c:v>
+                  <c:v>135517.46601999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>135517.46602328317</c:v>
+                  <c:v>131609.48126999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131609.48126786313</c:v>
+                  <c:v>129838.20961999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>129838.20961924456</c:v>
+                  <c:v>130093.26394999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130093.26395141828</c:v>
+                  <c:v>130487.53972</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130487.53972211166</c:v>
+                  <c:v>132063.28495</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132063.28494615361</c:v>
+                  <c:v>130663.76955</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>130663.76954673149</c:v>
+                  <c:v>132457.56072000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>132457.56071684696</c:v>
+                  <c:v>132517.00544000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133567.26869819418</c:v>
+                  <c:v>133566.48783</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>132517.00544015327</c:v>
+                  <c:v>134020.98918999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>133566.48782736642</c:v>
+                  <c:v>130566.29435</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>134020.98919219384</c:v>
+                  <c:v>135272.55398</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>130566.2943466274</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>135272.55398231509</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>136671.5556133003</c:v>
+                  <c:v>136671.55561000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11122,10 +11110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE51DD9-1461-4EF0-B3F6-AF301C631C93}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -11332,10 +11320,138 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>4502191.5666666673</v>
+        <v>4817077.33015873</v>
       </c>
       <c r="B26">
-        <v>130224.53087974354</v>
+        <v>136671.5556133003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>4692450.1492063487</v>
+      </c>
+      <c r="B27">
+        <v>132517.00544015327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>4605127.9111111108</v>
+      </c>
+      <c r="B28">
+        <v>131117.49004073115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>4635339.9333333327</v>
+      </c>
+      <c r="B29">
+        <v>131571.99140555854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>4489491.3111111112</v>
+      </c>
+      <c r="B30">
+        <v>129546.48920857374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>4582945.333333333</v>
+      </c>
+      <c r="B31">
+        <v>130873.90362139801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>4543727.3111111112</v>
+      </c>
+      <c r="B32">
+        <v>130243.83570026868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>4497985.3111111112</v>
+      </c>
+      <c r="B33">
+        <v>129692.64000616493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>4546903.9777777782</v>
+      </c>
+      <c r="B34">
+        <v>130418.19461442187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>4501161.9777777782</v>
+      </c>
+      <c r="B35">
+        <v>129866.99892031812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>4502543.4555555563</v>
+      </c>
+      <c r="B36">
+        <v>129692.64000616493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>4505720.1222222224</v>
+      </c>
+      <c r="B37">
+        <v>129866.99892031812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>4548285.4555555563</v>
+      </c>
+      <c r="B38">
+        <v>130243.83570026868</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>4421327.6333333328</v>
+      </c>
+      <c r="B39">
+        <v>129437.58567399121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>4502543.4555555563</v>
+      </c>
+      <c r="B40">
+        <v>129692.64000616493</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>4551462.1222222224</v>
+      </c>
+      <c r="B41">
+        <v>130418.19461442187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>4505720.1222222224</v>
+      </c>
+      <c r="B42">
+        <v>129866.99892031812</v>
       </c>
     </row>
   </sheetData>
@@ -11349,7 +11465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415A815F-6DDD-4004-9B74-CFBB6D8C3F97}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -11702,7 +11818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B9CA3D-2AEC-4AB1-8D9A-D27CA7FD25C2}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -11983,11 +12099,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FCB046-F938-4AED-80EF-DC578014B1A3}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="23.53125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
@@ -12296,7 +12415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AA2359-FB75-4A8E-822E-51F50C8B18D8}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -12585,8 +12704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A260897-94C5-42C9-8075-9D759CC4F8C7}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -12850,7 +12969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716ABAB6-4354-43A3-AF37-E4A6FB6C2F9B}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -13131,7 +13250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A0FC2A-23E3-4482-B13F-7655639FF605}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -13418,204 +13537,188 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1F2AF9-A6C5-48E5-B925-19D4224496FD}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>4709847.5793650793</v>
+        <v>4709847.5793700004</v>
       </c>
       <c r="B1">
-        <v>133103.55117533079</v>
+        <v>133103.55118000001</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>4631898.3412698414</v>
+        <v>4631898.3412699997</v>
       </c>
       <c r="B2">
-        <v>131214.96524083524</v>
+        <v>131214.96523999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>4742235.5793650793</v>
+        <v>4742235.5793700004</v>
       </c>
       <c r="B3">
-        <v>133663.96302747051</v>
+        <v>133663.96303000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>4772447.6015873021</v>
+        <v>4772447.6015900001</v>
       </c>
       <c r="B4">
-        <v>134118.46439229793</v>
+        <v>134118.46439000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>4754042.0793650793</v>
+        <v>4784254.1015900001</v>
       </c>
       <c r="B5">
-        <v>134058.23879816389</v>
+        <v>134512.74015999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>4784254.1015873021</v>
+        <v>4823487.6015900001</v>
       </c>
       <c r="B6">
-        <v>134512.74016299131</v>
+        <v>138344.84383999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>4823487.6015873021</v>
+        <v>4835294.1015900001</v>
       </c>
       <c r="B7">
-        <v>140344.84384323441</v>
+        <v>140739.11960999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>4835294.1015873021</v>
+        <v>4837535.2682499997</v>
       </c>
       <c r="B8">
-        <v>140739.11961392776</v>
+        <v>141544.535</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>4837535.2682539681</v>
+        <v>4796507.9015899999</v>
       </c>
       <c r="B9">
-        <v>141544.53499703755</v>
+        <v>135517.46601999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>4796507.9015873019</v>
+        <v>4635646.3412699997</v>
       </c>
       <c r="B10">
-        <v>135517.46602328317</v>
+        <v>131609.48126999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>4635646.3412698414</v>
+        <v>4417688.7761899997</v>
       </c>
       <c r="B11">
-        <v>131609.48126786313</v>
+        <v>129838.20961999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>4417688.7761904765</v>
+        <v>4498904.5984100001</v>
       </c>
       <c r="B12">
-        <v>129838.20961924456</v>
+        <v>130093.26394999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>4498904.5984126981</v>
+        <v>4510711.0984100001</v>
       </c>
       <c r="B13">
-        <v>130093.26395141828</v>
+        <v>130487.53972</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>4510711.0984126981</v>
+        <v>4673478.5793700004</v>
       </c>
       <c r="B14">
-        <v>130487.53972211166</v>
+        <v>132063.28495</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>4673478.5793650793</v>
+        <v>4586156.3412699997</v>
       </c>
       <c r="B15">
-        <v>132063.28494615361</v>
+        <v>130663.76955</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>4586156.3412698414</v>
+        <v>4685285.0793700004</v>
       </c>
       <c r="B16">
-        <v>130663.76954673149</v>
+        <v>132457.56072000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>4685285.0793650793</v>
+        <v>4697008.2936500004</v>
       </c>
       <c r="B17">
-        <v>132457.56071684696</v>
+        <v>132517.00544000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>4726705.6015873021</v>
+        <v>4720023.2936500004</v>
       </c>
       <c r="B18">
-        <v>133567.26869819418</v>
+        <v>133566.48783</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>4697008.2936507938</v>
+        <v>4750235.31587</v>
       </c>
       <c r="B19">
-        <v>132517.00544015327</v>
+        <v>134020.98918999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>4720023.2936507938</v>
+        <v>4563944.0555600002</v>
       </c>
       <c r="B20">
-        <v>133566.48782736642</v>
+        <v>130566.29435</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>4750235.3158730157</v>
+        <v>4793017.0301599996</v>
       </c>
       <c r="B21">
-        <v>134020.98919219384</v>
+        <v>135272.55398</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>4563944.055555556</v>
+        <v>4817077.3301600004</v>
       </c>
       <c r="B22">
-        <v>130566.2943466274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>4793017.0301587302</v>
-      </c>
-      <c r="B23">
-        <v>135272.55398231509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>4817077.33015873</v>
-      </c>
-      <c r="B24">
-        <v>136671.5556133003</v>
+        <v>136671.55561000001</v>
       </c>
     </row>
   </sheetData>
